--- a/Templates/plantilla compras_Febrero_2016.xlsx
+++ b/Templates/plantilla compras_Febrero_2016.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="12840" yWindow="-150" windowWidth="10455" windowHeight="7995"/>
+    <workbookView xWindow="15060" yWindow="-150" windowWidth="10455" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1975,8 +1975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="BE5" sqref="BE5"/>
+    <sheetView tabSelected="1" topLeftCell="AS148" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="BA8" sqref="BA8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2029,10 +2029,11 @@
     <col min="49" max="49" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="52" max="53" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="55.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:57" x14ac:dyDescent="0.25">
@@ -2204,7 +2205,7 @@
       <c r="BD1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BE1" s="2" t="s">
         <v>147</v>
       </c>
     </row>
@@ -15412,7 +15413,7 @@
       <c r="AQ154">
         <v>108</v>
       </c>
-      <c r="BE154" s="7">
+      <c r="BE154" s="1">
         <v>1</v>
       </c>
     </row>
@@ -15492,7 +15493,7 @@
       <c r="AQ155">
         <v>127.00079999999998</v>
       </c>
-      <c r="BE155" s="7">
+      <c r="BE155" s="1">
         <v>1</v>
       </c>
     </row>
@@ -15572,7 +15573,7 @@
       <c r="AQ156">
         <v>27428.000399999997</v>
       </c>
-      <c r="BE156" s="7">
+      <c r="BE156" s="1">
         <v>1</v>
       </c>
     </row>
@@ -15652,7 +15653,7 @@
       <c r="AQ157">
         <v>9511.9992000000002</v>
       </c>
-      <c r="BE157" s="7">
+      <c r="BE157" s="1">
         <v>1</v>
       </c>
     </row>
@@ -15732,7 +15733,7 @@
       <c r="AQ158">
         <v>43.999199999999995</v>
       </c>
-      <c r="BE158" s="7">
+      <c r="BE158" s="1">
         <v>1</v>
       </c>
     </row>
@@ -15812,7 +15813,7 @@
       <c r="AQ159">
         <v>230.99939999999998</v>
       </c>
-      <c r="BE159" s="7">
+      <c r="BE159" s="1">
         <v>1</v>
       </c>
     </row>
@@ -15892,7 +15893,7 @@
       <c r="AQ160">
         <v>1188</v>
       </c>
-      <c r="BE160" s="7">
+      <c r="BE160" s="1">
         <v>1</v>
       </c>
     </row>
@@ -15972,7 +15973,7 @@
       <c r="AQ161">
         <v>2638.0007999999998</v>
       </c>
-      <c r="BE161" s="7">
+      <c r="BE161" s="1">
         <v>1</v>
       </c>
     </row>
@@ -16052,7 +16053,7 @@
       <c r="AQ162">
         <v>55.9998</v>
       </c>
-      <c r="BE162" s="7">
+      <c r="BE162" s="1">
         <v>1</v>
       </c>
     </row>
@@ -16117,7 +16118,7 @@
       <c r="V163">
         <v>9365.5302000000011</v>
       </c>
-      <c r="BE163" s="7">
+      <c r="BE163" s="1">
         <v>5</v>
       </c>
     </row>
